--- a/data/trans_dic/P70A_R_2023-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P70A_R_2023-Habitat-trans_dic.xlsx
@@ -564,13 +564,13 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>0.2887395207527754</v>
+        <v>0.2887395207527753</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.2147839648083819</v>
+        <v>0.214783964808382</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.2544728953570514</v>
+        <v>0.2544728953570513</v>
       </c>
     </row>
     <row r="5">
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1779628121058825</v>
+        <v>0.1812909876539372</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1410556105352339</v>
+        <v>0.1433108763494201</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.186763152021901</v>
+        <v>0.1915792207599918</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.4126277052496262</v>
+        <v>0.4124271732507845</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.3043443460835992</v>
+        <v>0.3113992439613243</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.3303732941578656</v>
+        <v>0.3463120886056576</v>
       </c>
     </row>
     <row r="7">
@@ -619,13 +619,13 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>0.2584470891640173</v>
+        <v>0.2584470891640174</v>
       </c>
       <c r="D7" s="5" t="n">
         <v>0.2233632634688738</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.2417697867991562</v>
+        <v>0.2417697867991563</v>
       </c>
     </row>
     <row r="8">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.18204633323335</v>
+        <v>0.1787695395524082</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1516493191311247</v>
+        <v>0.1588709934710036</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1884128829599636</v>
+        <v>0.1911766967701836</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.3557051537804175</v>
+        <v>0.3524853815530029</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.2944369481666</v>
+        <v>0.300622237215024</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2970532278065134</v>
+        <v>0.2980137162463333</v>
       </c>
     </row>
     <row r="10">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.166418188391709</v>
+        <v>0.1602547454999749</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.09388220494411338</v>
+        <v>0.09648968780508008</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1395026084717195</v>
+        <v>0.1456870682688635</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.3645807753406533</v>
+        <v>0.3705633224446582</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.2494008633923713</v>
+        <v>0.2441718154793692</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.2676554623204834</v>
+        <v>0.2713901514341691</v>
       </c>
     </row>
     <row r="13">
@@ -732,10 +732,10 @@
         <v>0.207311685872406</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.2898910968141184</v>
+        <v>0.2898910968141183</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.2483136751779932</v>
+        <v>0.2483136751779931</v>
       </c>
     </row>
     <row r="14">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.143162399621337</v>
+        <v>0.1382117403923207</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.2252663855850142</v>
+        <v>0.223678777928943</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1983473741030286</v>
+        <v>0.201758515757045</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.300428280666635</v>
+        <v>0.2845928395642585</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.35636562438737</v>
+        <v>0.361586883112668</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.3007806962983772</v>
+        <v>0.3065278624275504</v>
       </c>
     </row>
     <row r="16">
@@ -790,7 +790,7 @@
         <v>0.2268069744818846</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.236932162798627</v>
+        <v>0.2369321627986269</v>
       </c>
     </row>
     <row r="17">
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.199348407097332</v>
+        <v>0.2017716208488792</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1917650620447975</v>
+        <v>0.1890974838857842</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.2065687098525571</v>
+        <v>0.2097188510331663</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.2934600790624768</v>
+        <v>0.294844461021269</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.2658410617582903</v>
+        <v>0.2647789505778648</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.2657387790742806</v>
+        <v>0.2685905170100523</v>
       </c>
     </row>
     <row r="19">
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>13420</v>
+        <v>13671</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>9184</v>
+        <v>9331</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>26244</v>
+        <v>26921</v>
       </c>
     </row>
     <row r="7">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>31117</v>
+        <v>31102</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>19815</v>
+        <v>20275</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>46424</v>
+        <v>48663</v>
       </c>
     </row>
     <row r="8">
@@ -1038,13 +1038,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>23877</v>
+        <v>23448</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>18022</v>
+        <v>18880</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>47103</v>
+        <v>47794</v>
       </c>
     </row>
     <row r="11">
@@ -1055,13 +1055,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>46655</v>
+        <v>46232</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>34991</v>
+        <v>35726</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>74263</v>
+        <v>74503</v>
       </c>
     </row>
     <row r="12">
@@ -1110,13 +1110,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>14421</v>
+        <v>13887</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>8798</v>
+        <v>9043</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>25163</v>
+        <v>26278</v>
       </c>
     </row>
     <row r="15">
@@ -1127,13 +1127,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>31593</v>
+        <v>32112</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>23373</v>
+        <v>22883</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>48278</v>
+        <v>48952</v>
       </c>
     </row>
     <row r="16">
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>18137</v>
+        <v>17510</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>28143</v>
+        <v>27945</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>49908</v>
+        <v>50766</v>
       </c>
     </row>
     <row r="19">
@@ -1199,13 +1199,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>38060</v>
+        <v>36054</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>44522</v>
+        <v>45174</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>75682</v>
+        <v>77129</v>
       </c>
     </row>
     <row r="20">
@@ -1254,13 +1254,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>83709</v>
+        <v>84727</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>77204</v>
+        <v>76130</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>169906</v>
+        <v>172497</v>
       </c>
     </row>
     <row r="23">
@@ -1271,13 +1271,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>123228</v>
+        <v>123810</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>107027</v>
+        <v>106600</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>218574</v>
+        <v>220919</v>
       </c>
     </row>
     <row r="24">
